--- a/misere tic-tac-toe .xlsx
+++ b/misere tic-tac-toe .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14060" tabRatio="500"/>
+    <workbookView xWindow="-160" yWindow="1220" windowWidth="24960" windowHeight="14060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>episode: 362000 win_rate: 0.859</t>
   </si>
@@ -162,6 +162,117 @@
   </si>
   <si>
     <t>episode: 393000 win_rate: 0.298</t>
+  </si>
+  <si>
+    <t>episode: 770000 win_rate: 0.311</t>
+  </si>
+  <si>
+    <t>episode: 771000 win_rate: 0.312</t>
+  </si>
+  <si>
+    <t>episode: 772000 win_rate: 0.311</t>
+  </si>
+  <si>
+    <t>episode: 773000 win_rate: 0.3265</t>
+  </si>
+  <si>
+    <t>episode: 774000 win_rate: 0.3445</t>
+  </si>
+  <si>
+    <t>episode: 775000 win_rate: 0.337</t>
+  </si>
+  <si>
+    <t>episode: 776000 win_rate: 0.302</t>
+  </si>
+  <si>
+    <t>episode: 777000 win_rate: 0.3095</t>
+  </si>
+  <si>
+    <t>episode: 778000 win_rate: 0.349</t>
+  </si>
+  <si>
+    <t>episode: 779000 win_rate: 0.3465</t>
+  </si>
+  <si>
+    <t>episode: 780000 win_rate: 0.3315</t>
+  </si>
+  <si>
+    <t>episode: 781000 win_rate: 0.3265</t>
+  </si>
+  <si>
+    <t>episode: 782000 win_rate: 0.314</t>
+  </si>
+  <si>
+    <t>episode: 783000 win_rate: 0.3165</t>
+  </si>
+  <si>
+    <t>episode: 977000 win_rate: 0.6475</t>
+  </si>
+  <si>
+    <t>episode: 978000 win_rate: 0.6405</t>
+  </si>
+  <si>
+    <t>episode: 979000 win_rate: 0.621</t>
+  </si>
+  <si>
+    <t>episode: 980000 win_rate: 0.655</t>
+  </si>
+  <si>
+    <t>episode: 981000 win_rate: 0.6375</t>
+  </si>
+  <si>
+    <t>episode: 982000 win_rate: 0.6185</t>
+  </si>
+  <si>
+    <t>episode: 983000 win_rate: 0.649</t>
+  </si>
+  <si>
+    <t>episode: 984000 win_rate: 0.625</t>
+  </si>
+  <si>
+    <t>episode: 985000 win_rate: 0.6315</t>
+  </si>
+  <si>
+    <t>episode: 986000 win_rate: 0.6255</t>
+  </si>
+  <si>
+    <t>episode: 987000 win_rate: 0.6115</t>
+  </si>
+  <si>
+    <t>episode: 988000 win_rate: 0.636</t>
+  </si>
+  <si>
+    <t>episode: 989000 win_rate: 0.6725</t>
+  </si>
+  <si>
+    <t>episode: 990000 win_rate: 0.644</t>
+  </si>
+  <si>
+    <t>episode: 991000 win_rate: 0.66</t>
+  </si>
+  <si>
+    <t>episode: 992000 win_rate: 0.6345</t>
+  </si>
+  <si>
+    <t>episode: 993000 win_rate: 0.6265</t>
+  </si>
+  <si>
+    <t>episode: 994000 win_rate: 0.654</t>
+  </si>
+  <si>
+    <t>episode: 995000 win_rate: 0.6685</t>
+  </si>
+  <si>
+    <t>episode: 996000 win_rate: 0.636</t>
+  </si>
+  <si>
+    <t>episode: 997000 win_rate: 0.633</t>
+  </si>
+  <si>
+    <t>episode: 998000 win_rate: 0.6325</t>
+  </si>
+  <si>
+    <t>episode: 999000 win_rate: 0.664</t>
   </si>
 </sst>
 </file>
@@ -482,193 +593,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N20" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
